--- a/Data/AntonelliRh.xlsx
+++ b/Data/AntonelliRh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/avila_75_buckeyemail_osu_edu/Documents/Devonian Study/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avila\Documents\GitHub\avila_etal_2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{B486311C-E467-4579-806C-C0BA161978FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BFD3B6-415C-4047-B76E-1D6A5A425E2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18C4B3-2189-4F74-8FFE-5FF3AF122FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1741AE4D-67A8-4D64-81FC-5D9AA8411C97}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1741AE4D-67A8-4D64-81FC-5D9AA8411C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,26 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,10 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,10 +119,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,1648 +421,1651 @@
   <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" s="4">
         <v>-1.44583379287526</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0.70372755597220604</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" s="4">
         <v>-5.61617679497075</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.70378562369030495</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" s="4">
         <v>-6.8121346641667602</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.70383202823425595</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" s="4">
         <v>-8.0201555089886298</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>0.70395959247821704</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="4">
         <v>-11.606305834344299</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.70408721186721002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" s="4">
         <v>-11.6321550678283</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.70426112551009101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" s="4">
         <v>-12.8591320172052</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.70451622642549905</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" s="4">
         <v>-14.077492555420701</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.70471335612661301</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" s="4">
         <v>-16.472854858277199</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.70482935370023103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11" s="4">
         <v>-17.0553242527848</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.70474820778647795</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" s="4">
         <v>-19.421390757692699</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.70466710323149795</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" s="4">
         <v>-19.411051064299102</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>0.70459753777434597</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14" s="4">
         <v>-24.172479872063501</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.70463243079298499</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15" s="4">
         <v>-25.3805007168854</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>0.70475999503694697</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" s="4">
         <v>-28.361778978714</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>0.70481803518252995</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" s="4">
         <v>-31.939312892908301</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.70488768335722896</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" s="4">
         <v>-37.2969973530384</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0.70493418440498501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" s="4">
         <v>-39.683743244733598</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.70499221076430996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" s="4">
         <v>-41.479403330759801</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>0.70507341182309402</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="4">
         <v>-42.680531046652703</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.70515459909562095</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" s="4">
         <v>-43.885105327010002</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.70525897485386502</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" s="4">
         <v>-45.679042130804</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.70532858166979095</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" s="4">
         <v>-47.474702216830202</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.70540978272857602</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" s="4">
         <v>-49.2686390206242</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.70547938954450196</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" s="4">
         <v>-52.256810411381899</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0.70558380666151899</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" s="4">
         <v>-54.653895996470702</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>0.70571139847799702</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="4">
         <v>-57.047535017094901</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>0.70581580180875703</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" s="4">
         <v>-58.844918385353402</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>0.70590859711039999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="4">
         <v>-61.8348130583434</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>0.70602460847027604</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="4">
         <v>-62.446578250799497</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>0.70614056468512099</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="4">
         <v>-65.436472923789495</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>0.70625657604499803</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="4">
         <v>-67.819772251020098</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>0.70629141391860595</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="4">
         <v>-73.175733428917994</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>0.70632632072350199</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="4">
         <v>-74.9679469504797</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0.70638433329656902</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="4">
         <v>-77.954395059005194</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>0.70647715617072904</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" s="4">
         <v>-83.899718760339695</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>0.70647729403330695</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="4">
         <v>-88.654254439175006</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>0.70646581008051101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="4">
         <v>-91.616576596448695</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>0.70639631355464805</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" s="4">
         <v>-95.778303187382804</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>0.70639641005845299</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" s="4">
         <v>-98.752688320282303</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>0.70640807323260102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A42" s="4">
         <v>-102.319882541083</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>0.70640815595014805</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" s="4">
         <v>-107.081311348847</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>0.70644304896878696</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44" s="4">
         <v>-110.639889158486</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>0.70638516047204103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="4">
         <v>-113.005955663394</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>0.70630405591706102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A46" s="4">
         <v>-116.566256755266</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>0.706257761663174</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47" s="4">
         <v>-121.923941215396</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>0.70630426271092905</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48" s="4">
         <v>-126.096007499724</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>0.70637392467188698</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" s="4">
         <v>-130.26118065512199</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>0.70639720966140895</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" s="4">
         <v>-132.625523877798</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>0.70630451086357104</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51" s="4">
         <v>-136.78208062203501</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>0.70626982463879995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="4">
         <v>-137.36455001654301</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>0.70618867872504598</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="4">
         <v>-139.732339803683</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>0.70611916841292599</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" s="4">
         <v>-142.10357615528801</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>0.70607284658652203</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="4">
         <v>-145.077961288187</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>0.70608450976067005</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="4">
         <v>-146.85121870519399</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>0.70601498566229104</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="4">
         <v>-146.84260229403299</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>0.70595701444799797</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="4">
         <v>-146.827092753942</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>0.70585266626226895</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="4">
         <v>-146.81675306054899</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>0.70578310080511697</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" s="4">
         <v>-147.40094573728899</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>0.70571354913422302</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A61" s="4">
         <v>-147.38888276166301</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>0.70563238943421103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A62" s="4">
         <v>-146.78056413367099</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>0.705539621705084</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A63" s="4">
         <v>-149.151800485276</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>0.70549329987868004</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A64" s="4">
         <v>-151.52992996581</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>0.70549335502371202</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="4">
         <v>-154.509484945406</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>0.70553980092643598</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A66" s="4">
         <v>-158.07495588397401</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>0.705528289401124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="4">
         <v>-160.441022388882</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>0.70544718484614499</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="4">
         <v>-162.216003088121</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>0.70538925499062499</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="4">
         <v>-162.20566339472799</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>0.70531968953347302</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A70" s="4">
         <v>-163.401621263924</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>0.70536609407742301</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" s="4">
         <v>-165.19728134995</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>0.70544729513620796</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" s="4">
         <v>-168.75241259512501</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>0.70536621815374401</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" s="4">
         <v>-170.52222344766699</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>0.70527350556964796</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A74" s="4">
         <v>-172.295480864674</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>0.70520398147126895</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" s="4">
         <v>-172.28169460681499</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>0.70511122752839905</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A76" s="4">
         <v>-175.84199569868699</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>0.70506493327451103</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" s="4">
         <v>-178.82327396051599</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>0.705122973420094</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" s="4">
         <v>-181.20829656997901</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>0.70516940553656104</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A79" s="4">
         <v>-184.784107201941</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>0.70522745946840104</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A80" s="4">
         <v>-186.57632072350199</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>0.70528547204146896</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A81" s="4">
         <v>-189.557598985331</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>0.70534351218705105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" s="4">
         <v>-191.94951472372301</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>0.70543632127495304</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" s="4">
         <v>-193.74345152751701</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>0.70550592809087898</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" s="4">
         <v>-194.942855961177</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>0.705575521120547</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A85" s="4">
         <v>-196.738516047204</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>0.70565672217933095</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A86" s="4">
         <v>-199.12698522113101</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>0.70572634278151503</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A87" s="4">
         <v>-203.89186059336001</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>0.70578442428587096</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A88" s="4">
         <v>-207.44526855630301</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>0.70569175306054899</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A89" s="4">
         <v>-208.62054703871101</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>0.70559902669019503</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A90" s="4">
         <v>-208.608484063085</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>0.70551786699018404</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A91" s="4">
         <v>-209.783762545494</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>0.70542514061982997</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A92" s="4">
         <v>-210.36278537553699</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>0.70532080622035898</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A93" s="4">
         <v>-211.532894011249</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>0.70519329712142897</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A94" s="4">
         <v>-212.70989577589</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>0.70511216499393403</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A95" s="4">
         <v>-212.697832800264</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>0.70503100529392304</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A96" s="4">
         <v>-214.46419708834199</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>0.70491510422410897</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A97" s="4">
         <v>-215.634305724054</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>0.70478759512517897</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A98" s="4">
         <v>-216.80441435976601</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>0.70466008602624897</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A99" s="4">
         <v>-216.77856512628199</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>0.70448617238336797</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A100" s="4">
         <v>-218.54320613212701</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>0.70435867707069499</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A101" s="4">
         <v>-218.529419874269</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>0.70426592312782599</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A102" s="4">
         <v>-219.70469835667799</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>0.70417319675747203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A103" s="4">
         <v>-220.287167751185</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>0.70409205084371895</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A104" s="4">
         <v>-222.05353203926299</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>0.70397614977390499</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A105" s="4">
         <v>-222.63255486930601</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>0.703871815374434</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A106" s="4">
         <v>-223.20640785265201</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>0.70373269824638796</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A107" s="4">
         <v>-224.97277214073</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>0.70361679717657399</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A108" s="4">
         <v>-225.55007168853999</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>0.70350086853424498</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A109" s="4">
         <v>-229.09313995808901</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>0.70333863185177004</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A110" s="4">
         <v>-232.67239715451601</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>0.70341987426932795</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A111" s="4">
         <v>-234.47150380500699</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>0.70352426381383004</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A112" s="4">
         <v>-236.268887173265</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>0.70361705911547301</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A113" s="4">
         <v>-238.664249476122</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>0.70373305668909203</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A114" s="4">
         <v>-241.652420866879</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>0.70383747380610995</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A115" s="4">
         <v>-246.41384967464401</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>0.70387236682474896</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A116" s="4">
         <v>-252.360896658211</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>0.703884098930186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A117" s="4">
         <v>-255.91602790338499</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>0.70380302194772204</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A118" s="4">
         <v>-258.88007334289102</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>0.70374511966471798</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A119" s="4">
         <v>-259.46598930186298</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>0.70368716223668204</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A120" s="4">
         <v>-261.23924671886999</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>0.70361763813830303</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A121" s="4">
         <v>-263.01422741810899</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>0.70355970828278303</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A122" s="4">
         <v>-267.16561431564998</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>0.703490239329436</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A123" s="4">
         <v>-270.73280853645002</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>0.70349032204698303</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A124" s="4">
         <v>-274.879025587294</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>0.70338607036505996</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A125" s="4">
         <v>-274.86523932943601</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>0.70329331642218995</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A126" s="4">
         <v>-276.03534796514799</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>0.70316580732325995</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A127" s="4">
         <v>-278.39796790559097</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>0.70306151428256303</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A128" s="4">
         <v>-280.17122532259799</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>0.70299199018418401</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A129" s="4">
         <v>-283.15078030219399</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>0.70303843608690797</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A130" s="4">
         <v>-285.53580291165702</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>0.70308486820337401</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A131" s="4">
         <v>-289.70614591375301</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>0.70314293592147303</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A132" s="4">
         <v>-291.500082717547</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>0.70321254273739897</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A133" s="4">
         <v>-295.65663946178398</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>0.70317785651262799</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A134" s="4">
         <v>-299.234173375978</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>0.703247504687327</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A135" s="4">
         <v>-299.84249200396999</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>0.70334027241645503</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A136" s="4">
         <v>-302.23613102459399</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>0.70344467574721503</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A137" s="4">
         <v>-303.435535458255</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>0.70351426877688295</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A138" s="4">
         <v>-305.82055806771803</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>0.70356070089334899</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A139" s="4">
         <v>-309.98573122311598</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>0.70358398588287197</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A140" s="4">
         <v>-309.99434763427797</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>0.70364195709716504</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A141" s="4">
         <v>-312.38109352597297</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>0.70369998345648999</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A142" s="4">
         <v>-315.95862744016699</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>0.70376963163119</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A143" s="4">
         <v>-318.34709661409499</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>0.70383925223337296</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A144" s="4">
         <v>-320.14792654681798</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>0.70395523602073395</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A145" s="4">
         <v>-321.94875647954098</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>0.70407121980809495</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A146" s="4">
         <v>-323.16194717105901</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>0.70423356678063298</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A147" s="4">
         <v>-325.55558619168397</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>0.70433797011139299</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A148" s="4">
         <v>-326.76016047204098</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>0.70444234586963705</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A149" s="4">
         <v>-329.15724605713001</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>0.70456993768611398</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A150" s="4">
         <v>-331.56467133561199</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>0.70476709495974399</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A151" s="4">
         <v>-334.56145913753102</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>0.70492948329105498</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A152" s="4">
         <v>-338.14933274511901</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>0.70506869692290697</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A153" s="4">
         <v>-339.94671611337799</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>0.70516149222455005</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A154" s="4">
         <v>-343.52941987426902</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>0.70526592312782599</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A155" s="4">
         <v>-346.52103782949098</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>0.70539352873056105</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A156" s="4">
         <v>-347.732505238778</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>0.70554428146023995</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A157" s="4">
         <v>-351.31693228190102</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>0.70566030660637402</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A158" s="4">
         <v>-353.124655343553</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>0.70582266736516996</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A159" s="4">
         <v>-354.33267618837499</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>0.70595023160913195</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A160" s="4">
         <v>-356.13522940333002</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>0.70607780963935096</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A161" s="4">
         <v>-357.93433605382103</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>0.70618219918385305</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A162" s="4">
         <v>-357.94812231167901</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>0.70627495312672295</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A163" s="4">
         <v>-359.15958972096598</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>0.70642570585640196</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A164" s="4">
         <v>-360.96558950038599</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>0.706576472372339</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A165" s="4">
         <v>-360.98971545163698</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>0.70673879177236099</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A166" s="4">
         <v>-365.751144259402</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>0.706773684791</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A167" s="4">
         <v>-371.10193559060298</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>0.706773808867321</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A168" s="4">
         <v>-377.03864288077602</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>0.70671597551560605</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A169" s="4">
         <v>-381.19002977831701</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>0.70664650656225803</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A170" s="4">
         <v>-387.12673706849</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>0.70658867321054297</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A171" s="4">
         <v>-390.70944082938098</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>0.70669310411381903</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A172" s="4">
         <v>-391.31775945737201</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>0.70678587184294595</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A173" s="4">
         <v>-396.08780467629799</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>0.70687873607587903</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A174" s="4">
         <v>-400.85784989522398</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>0.70697160030881201</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A175" s="4">
         <v>-404.43193724495399</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>0.70701805999779399</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A176" s="4">
         <v>-405.63995808977597</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <v>0.70714562424175498</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A177" s="4">
         <v>-408.64019245615901</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>0.707331201058784</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A178" s="4">
         <v>-409.25712749531198</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>0.70748194000220499</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A179" s="4">
         <v>-412.24702216830201</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>0.70759795136208203</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A180" s="4">
         <v>-416.41391860593302</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>0.70763283059446302</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A181" s="4">
         <v>-418.776538546376</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>0.70752853755376599</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A182" s="4">
         <v>-422.32477666262201</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>0.70740108359986698</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A183" s="4">
         <v>-427.05863295466997</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>0.70725046873276698</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A184" s="4">
         <v>-433.57436307488598</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>0.70708830098158104</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A185" s="4">
         <v>-435.33900408073202</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>0.70696080566890895</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A186" s="4">
         <v>-441.85128763648402</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
         <v>0.70677544943200599</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A187" s="4">
         <v>-446.00439781625602</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>0.70671757472151697</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A188" s="4">
         <v>-449.55435921473401</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>0.70660171501047697</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A189" s="4">
         <v>-452.52185121870502</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>0.70656700121319005</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A190" s="4">
         <v>-455.50657604499798</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>0.70664822984449005</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A191" s="4">
         <v>-457.90021506562198</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>0.70675263317524994</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A192" s="4">
         <v>-459.10823591044402</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>0.70688019741921204</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A193" s="4">
         <v>-460.90044943200598</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>0.70693820999227897</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A194" s="4">
         <v>-462.70300264696101</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>0.70706578802249898</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A195" s="4">
         <v>-463.90757692731802</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>0.70717016378074304</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A196" s="4">
         <v>-466.297769383478</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
         <v>0.70725137862578502</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A197" s="4">
         <v>-469.28249420977102</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>0.70733260725708602</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A198" s="4">
         <v>-472.26032590713498</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>0.70736745891695096</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A199" s="4">
         <v>-477.60594739163997</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
         <v>0.70733280026469603</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A200" s="4">
         <v>-482.35703650600999</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>0.70729812782618195</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A201" s="4">
         <v>-485.32280522774897</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>0.70725181978603702</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A202" s="4">
         <v>-489.48108525421799</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>0.70722872780412405</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A203" s="4">
         <v>-492.45202382265302</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>0.70721720249255504</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A204" s="4">
         <v>-493.647981691849</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>0.70726360703650604</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A205" s="4">
         <v>-496.627536671445</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>0.70731005293922999</v>
       </c>
     </row>
@@ -2068,9 +2086,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1">
         <v>372</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>0.70674999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>374</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>0.70674000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>376</v>
       </c>
@@ -2094,7 +2112,7 @@
         <v>0.70669000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>378</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>0.70667000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>380</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>0.70664000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>382</v>
       </c>
@@ -2118,7 +2136,7 @@
         <v>0.70662000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>384</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>0.70660000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>386</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>0.70657999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>388</v>
       </c>
@@ -2142,7 +2160,7 @@
         <v>0.70662000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>390</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>0.70670999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>392</v>
       </c>
@@ -2158,7 +2176,7 @@
         <v>0.70681000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>394</v>
       </c>
